--- a/방명록/방명록 테이블명세(2021-05-18).xlsx
+++ b/방명록/방명록 테이블명세(2021-05-18).xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
-    <sheet name="방명록" sheetId="2" r:id="rId1"/>
+    <sheet name="할일기록" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -107,62 +107,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_guest_book</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>글번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>등록일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록자이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>글내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BIG INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가변문자열(2000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gb_seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,55 +131,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gb_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gb_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL형식</t>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_TodoList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가변문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gb_place</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클형식</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BIG INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(2000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gb_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gb_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gb_content</t>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(250)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +905,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1613,7 +1573,7 @@
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="13">
-        <v>44328</v>
+        <v>44340</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>3</v>
@@ -1625,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1670,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>11</v>
@@ -1696,20 +1656,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1723,19 +1681,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1748,19 +1706,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1773,19 +1731,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1798,19 +1756,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1822,21 +1780,11 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1847,21 +1795,11 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2027,7 +1965,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2037,59 +1975,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
